--- a/2017年每月提成表/12月28日信达财险付款申请表.xlsx
+++ b/2017年每月提成表/12月28日信达财险付款申请表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$O$42</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -289,14 +289,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
     <numFmt numFmtId="178" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -623,7 +623,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -655,10 +655,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -690,7 +689,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -866,14 +864,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A42" sqref="A42:M42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.25" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1"/>
@@ -893,7 +891,7 @@
     <col min="19" max="19" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="27" customHeight="1">
       <c r="A1" s="23" t="s">
         <v>45</v>
       </c>
@@ -912,7 +910,7 @@
       <c r="N1" s="24"/>
       <c r="O1" s="24"/>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="37.5" customHeight="1">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
@@ -962,7 +960,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1013,7 +1011,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1060,7 +1058,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -1106,7 +1104,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -1153,7 +1151,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -1200,7 +1198,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -1251,7 +1249,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -1298,7 +1296,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -1345,7 +1343,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -1392,7 +1390,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -1439,7 +1437,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
     </row>
-    <row r="13" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -1486,7 +1484,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
     </row>
-    <row r="14" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -1533,7 +1531,7 @@
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
     </row>
-    <row r="15" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -1580,7 +1578,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
     </row>
-    <row r="16" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -1627,7 +1625,7 @@
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
     </row>
-    <row r="17" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -1674,7 +1672,7 @@
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
     </row>
-    <row r="18" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -1721,7 +1719,7 @@
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
     </row>
-    <row r="19" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -1768,7 +1766,7 @@
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
     </row>
-    <row r="20" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -1819,7 +1817,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -1866,7 +1864,7 @@
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
     </row>
-    <row r="22" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -1913,7 +1911,7 @@
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
     </row>
-    <row r="23" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -1960,7 +1958,7 @@
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
     </row>
-    <row r="24" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -2011,7 +2009,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -2058,7 +2056,7 @@
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
     </row>
-    <row r="26" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -2105,7 +2103,7 @@
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
     </row>
-    <row r="27" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -2156,7 +2154,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -2203,7 +2201,7 @@
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
     </row>
-    <row r="29" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -2250,7 +2248,7 @@
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
     </row>
-    <row r="30" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -2296,7 +2294,7 @@
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
     </row>
-    <row r="31" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -2347,7 +2345,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -2394,7 +2392,7 @@
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
     </row>
-    <row r="33" spans="1:19" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:19" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -2445,7 +2443,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:19" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:19" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -2492,7 +2490,7 @@
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
     </row>
-    <row r="35" spans="1:19" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:19" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -2539,7 +2537,7 @@
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
     </row>
-    <row r="36" spans="1:19" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:19" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A36" s="4">
         <v>34</v>
       </c>
@@ -2586,7 +2584,7 @@
       <c r="O36" s="6"/>
       <c r="P36" s="4"/>
     </row>
-    <row r="37" spans="1:19" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:19" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A37" s="4">
         <v>35</v>
       </c>
@@ -2625,7 +2623,7 @@
       <c r="N37" s="6"/>
       <c r="P37" s="4"/>
     </row>
-    <row r="38" spans="1:19" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:19" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A38" s="4">
         <v>36</v>
       </c>
@@ -2665,7 +2663,7 @@
       <c r="O38" s="6"/>
       <c r="P38" s="4"/>
     </row>
-    <row r="39" spans="1:19" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:19" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A39" s="4">
         <v>37</v>
       </c>
@@ -2709,7 +2707,7 @@
       <c r="O39" s="6"/>
       <c r="P39" s="4"/>
     </row>
-    <row r="40" spans="1:19" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:19" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A40" s="14">
         <v>38</v>
       </c>
@@ -2753,7 +2751,7 @@
       <c r="O40" s="6"/>
       <c r="P40" s="4"/>
     </row>
-    <row r="41" spans="1:19" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:19" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A41" s="25" t="s">
         <v>31</v>
       </c>
@@ -2812,7 +2810,7 @@
       </c>
       <c r="P41" s="4"/>
     </row>
-    <row r="42" spans="1:19" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:19" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A42" s="27" t="s">
         <v>43</v>
       </c>
@@ -2834,7 +2832,7 @@
       <c r="O42" s="7"/>
       <c r="P42" s="18"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:19">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
@@ -2851,7 +2849,7 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:19">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
@@ -2868,7 +2866,7 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:19">
       <c r="S45" s="12"/>
     </row>
   </sheetData>
@@ -2885,14 +2883,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -2900,7 +2898,7 @@
     <col min="6" max="6" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="30.75" customHeight="1">
       <c r="A1" s="23" t="s">
         <v>66</v>
       </c>
@@ -2910,7 +2908,7 @@
       <c r="E1" s="23"/>
       <c r="F1" s="23"/>
     </row>
-    <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" ht="28.5">
       <c r="A2" s="16" t="s">
         <v>32</v>
       </c>
@@ -2930,15 +2928,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="51" customHeight="1">
       <c r="A3" s="22">
-        <v>551</v>
+        <v>510</v>
       </c>
       <c r="B3" s="22">
+        <v>0</v>
+      </c>
+      <c r="C3" s="22">
         <v>1</v>
-      </c>
-      <c r="C3" s="22">
-        <v>0</v>
       </c>
       <c r="D3" s="22">
         <v>0</v>
@@ -2948,10 +2946,10 @@
       </c>
       <c r="F3" s="22">
         <f>SUM(A3*20+B3*40+C3*60+D3*100+E3*5000)</f>
-        <v>16060</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="20.25" x14ac:dyDescent="0.15">
+        <v>15260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="20.25">
       <c r="A4" s="27" t="s">
         <v>43</v>
       </c>
@@ -2972,7 +2970,7 @@
       <c r="L4" s="13"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13">
       <c r="A5" s="30"/>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -2997,12 +2995,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
